--- a/sitenames.xlsx
+++ b/sitenames.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://drexel0-my.sharepoint.com/personal/lf649_drexel_edu/Documents/Research/South Philly R21/Report Back/Apps/THRIVEair_shiny/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="41" documentId="8_{5334D5FC-2FEB-FD42-97EF-6E6F49FE5F7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6F27BC17-F8EC-A84C-8CC4-FE5FED6C0D0E}"/>
+  <xr:revisionPtr revIDLastSave="62" documentId="8_{5334D5FC-2FEB-FD42-97EF-6E6F49FE5F7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BDFADD42-5428-434A-A015-5DA598203978}"/>
   <bookViews>
-    <workbookView xWindow="14780" yWindow="580" windowWidth="14400" windowHeight="15440" xr2:uid="{64F79FF7-AE34-C948-8EC1-A489EB5877E9}"/>
+    <workbookView xWindow="-27340" yWindow="-200" windowWidth="20640" windowHeight="15660" xr2:uid="{64F79FF7-AE34-C948-8EC1-A489EB5877E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="68">
   <si>
     <t>Bartram’s Garden</t>
   </si>
@@ -171,13 +171,82 @@
   </si>
   <si>
     <t>Grays Ferry Ave</t>
+  </si>
+  <si>
+    <t>site_id</t>
+  </si>
+  <si>
+    <t>39.92896, -75.212541</t>
+  </si>
+  <si>
+    <t>39.90131732, -75.2250262</t>
+  </si>
+  <si>
+    <t>39.91820446, -75.2085474</t>
+  </si>
+  <si>
+    <t>39.92061091, -75.1955879</t>
+  </si>
+  <si>
+    <t>39.92624784, -75.1923165</t>
+  </si>
+  <si>
+    <t>39.92771763, -75.1873965</t>
+  </si>
+  <si>
+    <t>39.93094655, -75.1829941</t>
+  </si>
+  <si>
+    <t>39.92296389, -75.186874</t>
+  </si>
+  <si>
+    <t>39.91327125, -75.1922011</t>
+  </si>
+  <si>
+    <t>39.91118246, -75.1885003</t>
+  </si>
+  <si>
+    <t>39.92759256, -75.1950607</t>
+  </si>
+  <si>
+    <t>39.931447, -75.193386</t>
+  </si>
+  <si>
+    <t>39.935920, -75.183090</t>
+  </si>
+  <si>
+    <t>39.938448, -75.192335</t>
+  </si>
+  <si>
+    <t>39.93924766, -75.1944459</t>
+  </si>
+  <si>
+    <t>39.93965, -75.204199</t>
+  </si>
+  <si>
+    <t>39.93648699, -75.1979342</t>
+  </si>
+  <si>
+    <t>39.93416729, -75.19723264</t>
+  </si>
+  <si>
+    <t>39.93592967, -75.19557444</t>
+  </si>
+  <si>
+    <t>39.92957166, -75.1962242</t>
+  </si>
+  <si>
+    <t>39.92640295, -75.18538637</t>
+  </si>
+  <si>
+    <t>coordinates</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -189,6 +258,19 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -212,9 +294,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -230,10 +314,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -533,162 +613,223 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B71F45A3-C6A6-7D49-97EE-03EC6C15B526}">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.83203125" customWidth="1"/>
-    <col min="2" max="2" width="24.83203125" customWidth="1"/>
-    <col min="3" max="3" width="25.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.83203125" customWidth="1"/>
+    <col min="3" max="3" width="24.83203125" customWidth="1"/>
+    <col min="4" max="4" width="25.33203125" customWidth="1"/>
+    <col min="6" max="6" width="23.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="F1" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="F2" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="F3" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="F4" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="F5" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="F6" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+      <c r="F7" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+      <c r="F8" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+      <c r="F9" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>30</v>
+      <c r="F10" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>30</v>
@@ -696,13 +837,19 @@
       <c r="C11" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>31</v>
+      <c r="D11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>31</v>
@@ -710,69 +857,99 @@
       <c r="C12" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>40</v>
+      <c r="D12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>42</v>
+      <c r="E13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>43</v>
+      <c r="E14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>44</v>
+      <c r="E15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" t="s">
         <v>44</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>34</v>
+        <v>44</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>34</v>
@@ -780,13 +957,19 @@
       <c r="C17" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>35</v>
+      <c r="D17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>35</v>
@@ -794,13 +977,19 @@
       <c r="C18" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>36</v>
+      <c r="D18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>36</v>
@@ -808,13 +997,19 @@
       <c r="C19" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>37</v>
+      <c r="D19" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>19</v>
       </c>
       <c r="B20" t="s">
         <v>37</v>
@@ -822,13 +1017,19 @@
       <c r="C20" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>38</v>
+      <c r="D20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>38</v>
@@ -836,13 +1037,19 @@
       <c r="C21" t="s">
         <v>38</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>39</v>
+      <c r="D21" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>21</v>
       </c>
       <c r="B22" t="s">
         <v>39</v>
@@ -850,8 +1057,14 @@
       <c r="C22" t="s">
         <v>39</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>29</v>
+      <c r="D22" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
